--- a/02_詳細設計書/01_詳細設計書/チーム2/【勤怠】テーブル定義書(サンプル).xlsx
+++ b/02_詳細設計書/01_詳細設計書/チーム2/【勤怠】テーブル定義書(サンプル).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6DA389-8DBB-40E6-B07F-44B02743A3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF469220-4D74-4321-B03A-B35CBDB1E202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15330" yWindow="795" windowWidth="13125" windowHeight="11055" tabRatio="761" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="120">
   <si>
     <t>システム名</t>
   </si>
@@ -92,18 +92,18 @@
   </si>
   <si>
     <t>作成日</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>承認者</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>社員ID</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>社員名称</t>
@@ -113,7 +113,7 @@
     <rPh sb="2" eb="4">
       <t>メイショウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>パスワード</t>
@@ -126,7 +126,7 @@
     <rPh sb="2" eb="4">
       <t>ブモン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>EMPLOYEE_NAME</t>
@@ -136,49 +136,49 @@
   </si>
   <si>
     <t>DEPT_ID</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>EMPLOYEE_ID</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CREATE_DATE</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UPDATE_DATE</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>T_EMPLOYEE</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>事務</t>
     <rPh sb="0" eb="2">
       <t>ジム</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>設定</t>
     <rPh sb="0" eb="2">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>項　　　目　　　名</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>コメント</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>デフォルト（省略値）</t>
@@ -188,7 +188,7 @@
     <rPh sb="8" eb="9">
       <t>チ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>社員情報</t>
@@ -198,32 +198,32 @@
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>勤怠管理システム</t>
     <rPh sb="0" eb="4">
       <t>キンタイカンリ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>劉</t>
     <rPh sb="0" eb="1">
       <t>リュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>削除フラグ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>出勤時間</t>
@@ -233,7 +233,7 @@
     <rPh sb="2" eb="4">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>退勤時間</t>
@@ -243,7 +243,7 @@
     <rPh sb="2" eb="4">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>休憩時間</t>
@@ -253,7 +253,7 @@
     <rPh sb="2" eb="4">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>作業時間</t>
@@ -263,7 +263,7 @@
     <rPh sb="2" eb="4">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>残業時間</t>
@@ -273,7 +273,7 @@
     <rPh sb="2" eb="4">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>欠勤時間</t>
@@ -283,21 +283,21 @@
     <rPh sb="2" eb="4">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>REMARKS</t>
   </si>
   <si>
     <t>T_ATTENDANCE</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>勤怠実績</t>
@@ -307,48 +307,48 @@
     <rPh sb="2" eb="4">
       <t>ジッセキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ATTENDANCE_DATE</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>START_TIME</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>END_TIME</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>STATUS_ID</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>カレンダーマスタ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>休日フラグ</t>
     <rPh sb="0" eb="2">
       <t>キュウジツ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>部門マスタ</t>
     <rPh sb="0" eb="2">
       <t>ブモン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>部門ID</t>
     <rPh sb="0" eb="2">
       <t>ブモン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>部門名称</t>
@@ -358,41 +358,41 @@
     <rPh sb="2" eb="4">
       <t>メイショウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>表示フラグ</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>年月日</t>
     <rPh sb="0" eb="3">
       <t>ネンガッピ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>M_CALENDAR</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HOLIDAY_FLG</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CALENDAR_DATE</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>M_DEPT</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>DEPT_NAME</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>勤怠年月マスタ</t>
@@ -405,27 +405,27 @@
     <rPh sb="3" eb="4">
       <t>ガツ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>M_ATTENDANCE_YM</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ATTENDANCE_YM</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>DISPLAY_FLG</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>勤怠年月</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>M_STATUS</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>出勤状態マスタ</t>
@@ -435,18 +435,18 @@
     <rPh sb="2" eb="4">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>STATUS_NAME</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>状態ID</t>
     <rPh sb="0" eb="2">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>状態名称</t>
@@ -456,11 +456,11 @@
     <rPh sb="2" eb="4">
       <t>メイショウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テーブル論理名</t>
@@ -470,7 +470,7 @@
     <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テーブル物理名</t>
@@ -480,33 +480,33 @@
     <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>カレンダーマスタ</t>
   </si>
   <si>
     <t>OVERTIME_HOURS</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>REST_HOURS</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>WORKING_HOURS</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ABSENCE_HOURS</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>状態ID</t>
     <rPh sb="0" eb="2">
       <t>ジョウタイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>WEEKDAY</t>
@@ -516,67 +516,118 @@
     <rPh sb="0" eb="2">
       <t>ヨウビ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>HH:MI</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>YYYY/MM/DD</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>T_EMPLOYEE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SEX</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>VARCHAR</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>性別</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入社年月日</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>年齢</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ADMIN_FLG</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理部フラグ　0=普通社員　1=管理部</t>
+    <rPh sb="0" eb="3">
+      <t>カンリブ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カンリブ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GENDER</t>
   </si>
   <si>
     <t>TELEPHONE_NUMBER</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>電話番号</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CALENDAR_DATE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入社年月日</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ENTRY_DATE</t>
   </si>
   <si>
     <t>AGE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>年齢</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MAIL_ADDRESS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MAIL_ADD</t>
+  </si>
+  <si>
+    <t>BUSINESS_DAY</t>
+  </si>
+  <si>
+    <t>INT／NUMBER</t>
+  </si>
+  <si>
+    <t>営業日数</t>
+  </si>
+  <si>
+    <t>START_DAY</t>
+  </si>
+  <si>
+    <t>出勤日数</t>
+  </si>
+  <si>
+    <t>ABSENCE_DAY</t>
+  </si>
+  <si>
+    <t>欠勤日数</t>
+  </si>
+  <si>
+    <t>ACTUAL_WORKING_HOURS</t>
+  </si>
+  <si>
+    <t>実働時間(H)</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>コメント</t>
   </si>
 </sst>
 </file>
@@ -586,11 +637,19 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -648,6 +707,25 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1031,131 +1109,135 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1164,16 +1246,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="2" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{FA63E8A6-1C71-4EFF-8C0F-2FFD79FD4991}"/>
+    <cellStyle name="標準 2 2" xfId="4" xr:uid="{F72F6B84-17F9-493A-9C28-6DF273C46621}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{178F3E0B-AF5B-43C9-BF3D-1C0D7D6E512D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1579,9 +1672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221F086F-26AC-4114-B742-94502A035963}">
   <dimension ref="B3:E11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1690,7 +1781,7 @@
       <c r="E11" s="50"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="C4" location="T_EMPLOYEE!A1" display="T_EMPLOYEE" xr:uid="{06F9AA04-76A4-4195-A260-863184B714C9}"/>
     <hyperlink ref="C5" location="T_ATTENDANCE!A1" display="T_ATTENDANCE" xr:uid="{F4EEE970-B13F-48B4-8814-ECB8F574F00C}"/>
@@ -1707,7 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2052,11 +2143,11 @@
       <c r="A16" s="15">
         <v>10</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="D16" s="15">
         <v>3</v>
@@ -2066,7 +2157,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="17"/>
     </row>
@@ -2074,11 +2165,11 @@
       <c r="A17" s="15">
         <v>11</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>97</v>
+      <c r="B17" s="60" t="s">
+        <v>104</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="15">
         <v>13</v>
@@ -2088,7 +2179,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J17" s="17"/>
     </row>
@@ -2096,11 +2187,11 @@
       <c r="A18" s="15">
         <v>12</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>99</v>
+      <c r="B18" s="62" t="s">
+        <v>105</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="15">
         <v>10</v>
@@ -2110,7 +2201,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J18" s="17"/>
     </row>
@@ -2118,11 +2209,11 @@
       <c r="A19" s="15">
         <v>13</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>101</v>
+      <c r="B19" s="60" t="s">
+        <v>106</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D19" s="15">
         <v>3</v>
@@ -2132,7 +2223,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J19" s="17"/>
     </row>
@@ -2140,11 +2231,11 @@
       <c r="A20" s="15">
         <v>14</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>104</v>
+      <c r="B20" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="15">
         <v>20</v>
@@ -2154,20 +2245,30 @@
       <c r="G20" s="17"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="15">
+        <v>15</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
       <c r="E21" s="16"/>
       <c r="F21" s="24"/>
       <c r="G21" s="17"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="I21" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2219,7 +2320,7 @@
       <c r="J25" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -2739,7 +2840,7 @@
       <c r="J25" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -3148,7 +3249,7 @@
       <c r="J20" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -3162,385 +3263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF8F0EC-E53B-43F7-9269-04FD6361ACC3}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="42">
-        <v>43996</v>
-      </c>
-      <c r="J2" s="43"/>
-    </row>
-    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="4.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" s="35" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
-        <v>1</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="12">
-        <v>10</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="O7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15">
-        <v>2</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="44">
-        <v>100</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15">
-        <v>3</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15">
-        <v>4</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15">
-        <v>5</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="15">
-        <v>10</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15">
-        <v>6</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15">
-        <v>7</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="15">
-        <v>10</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="20"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12
-テーブル定義書</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB74DD2A-97C4-43BD-933B-830F65CBE11A}">
-  <dimension ref="A1:O19"/>
-  <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3614,11 +3338,11 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -3675,13 +3399,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="23" t="s">
@@ -3692,7 +3416,7 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J7" s="14"/>
       <c r="O7" s="1" t="s">
@@ -3704,22 +3428,20 @@
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="44">
+        <v>100</v>
+      </c>
+      <c r="E8" s="45"/>
       <c r="F8" s="46"/>
       <c r="G8" s="47"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" s="17"/>
     </row>
@@ -3906,7 +3628,446 @@
       <c r="J19" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12
+テーブル定義書</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB74DD2A-97C4-43BD-933B-830F65CBE11A}">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="42">
+        <v>43996</v>
+      </c>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="4.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" s="35" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="O7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15">
+        <v>10</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
+        <v>7</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15">
+        <v>10</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="63">
+        <v>8</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="63">
+        <v>4</v>
+      </c>
+      <c r="E14" s="64">
+        <v>0</v>
+      </c>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="63">
+        <v>9</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="63">
+        <v>4</v>
+      </c>
+      <c r="E15" s="64">
+        <v>0</v>
+      </c>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="63">
+        <v>10</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="63">
+        <v>4</v>
+      </c>
+      <c r="E16" s="64">
+        <v>0</v>
+      </c>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="63">
+        <v>11</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="63">
+        <v>4</v>
+      </c>
+      <c r="E17" s="64">
+        <v>0</v>
+      </c>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="63">
+        <v>12</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="63">
+        <v>30</v>
+      </c>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -3920,7 +4081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8427E8D5-5CFC-4AAE-AD7E-D94DD8AB6A75}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I9" sqref="H9:I9"/>
     </sheetView>
   </sheetViews>
@@ -4285,7 +4446,7 @@
       <c r="J19" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
